--- a/homeworks/CF_HW_6_2024_Ans.xlsx
+++ b/homeworks/CF_HW_6_2024_Ans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Problems Fall 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Corp Fin Git/Corp-Fin/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{233ADA98-9D8A-BC42-AA9E-DDD6EAECB228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A116E33E-4ABF-AE4E-8DD7-A5AE8D5613BB}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{233ADA98-9D8A-BC42-AA9E-DDD6EAECB228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E41736EC-B7C2-4847-BB0D-001242C02DAD}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="500" windowWidth="37120" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25540" yWindow="500" windowWidth="30840" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1311,47 +1311,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1711,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A163" zoomScale="108" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="108" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1729,31 +1728,29 @@
     <col min="10" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24"/>
       <c r="C5" s="94"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-    </row>
-    <row r="6" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1761,21 +1758,19 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="111"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="103"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="111"/>
-    </row>
-    <row r="8" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1785,18 +1780,17 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="111"/>
-    </row>
-    <row r="9" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="103"/>
+    </row>
+    <row r="9" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-    </row>
-    <row r="10" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+    </row>
+    <row r="10" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1804,31 +1798,31 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="104"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="103"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="104"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="103"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="104"/>
-    </row>
-    <row r="13" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="103"/>
+    </row>
+    <row r="13" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>97</v>
@@ -1836,17 +1830,17 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="104"/>
-    </row>
-    <row r="14" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="103"/>
+    </row>
+    <row r="14" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-    </row>
-    <row r="15" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+    </row>
+    <row r="15" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1854,52 +1848,52 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="104"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="103"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="104"/>
+      <c r="G16" s="103"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
-        <v>0.30559999999999998</v>
-      </c>
-      <c r="C17" s="104" t="s">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="C17" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="104"/>
+      <c r="G17" s="103"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="105">
         <f>-((3.15)/4.77 -1)</f>
         <v>0.33962264150943389</v>
       </c>
-      <c r="E18" s="104"/>
+      <c r="E18" s="103"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="104"/>
+      <c r="G18" s="103"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="104"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
@@ -1909,15 +1903,15 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="104"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="21" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
     </row>
     <row r="22" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -1927,38 +1921,38 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="104"/>
+      <c r="G22" s="103"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="104"/>
+      <c r="G23" s="103"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <f>D34</f>
         <v>-0.19383259911894274</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104" t="s">
+      <c r="C24" s="103"/>
+      <c r="D24" s="103" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="11">
         <v>450000</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="104"/>
+      <c r="G24" s="103"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="104"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="13" t="s">
         <v>100</v>
       </c>
@@ -1966,55 +1960,55 @@
         <v>4000</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="104"/>
+      <c r="G25" s="103"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="107" t="s">
+      <c r="C26" s="103"/>
+      <c r="D26" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="107">
         <f>E25+E24</f>
         <v>454000</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="104"/>
+      <c r="G26" s="103"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="104"/>
+      <c r="G27" s="103"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104" t="s">
+      <c r="C28" s="103"/>
+      <c r="D28" s="103" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="11">
         <v>400000</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="104"/>
+      <c r="G28" s="103"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="109" t="s">
+      <c r="C29" s="103"/>
+      <c r="D29" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="104"/>
+      <c r="E29" s="103"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="104"/>
+      <c r="G29" s="103"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104" t="s">
+      <c r="C30" s="103"/>
+      <c r="D30" s="103" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="11">
@@ -2022,11 +2016,11 @@
         <v>24000</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="104"/>
+      <c r="G30" s="103"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="104"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="13" t="s">
         <v>104</v>
       </c>
@@ -2035,28 +2029,28 @@
         <v>10000</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="104"/>
+      <c r="G31" s="103"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="107" t="s">
+      <c r="C32" s="103"/>
+      <c r="D32" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="108">
+      <c r="E32" s="107">
         <f>E28-E30-E31</f>
         <v>366000</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="104"/>
+      <c r="G32" s="103"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="104"/>
+      <c r="G33" s="103"/>
     </row>
     <row r="34" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
@@ -2069,15 +2063,10 @@
         <v>106</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="104"/>
+      <c r="G34" s="103"/>
     </row>
     <row r="35" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
+      <c r="B35" s="109"/>
     </row>
     <row r="36" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -2087,49 +2076,49 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="104"/>
+      <c r="G36" s="103"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
     </row>
     <row r="41" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
@@ -2139,23 +2128,23 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="104"/>
+      <c r="G41" s="103"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
     </row>
     <row r="43" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
     </row>
     <row r="44" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
@@ -2165,27 +2154,27 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="104"/>
+      <c r="G44" s="103"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="104"/>
+      <c r="G45" s="103"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="104"/>
+      <c r="G46" s="103"/>
     </row>
     <row r="47" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="10"/>
@@ -2195,15 +2184,15 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="104"/>
+      <c r="G47" s="103"/>
     </row>
     <row r="48" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
     </row>
     <row r="49" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -2213,39 +2202,39 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="104"/>
+      <c r="G49" s="103"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="104"/>
+      <c r="G50" s="103"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="104" t="s">
+      <c r="C51" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="104"/>
+      <c r="G51" s="103"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="104"/>
+      <c r="G52" s="103"/>
     </row>
     <row r="53" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="10"/>
@@ -2255,15 +2244,15 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="104"/>
+      <c r="G53" s="103"/>
     </row>
     <row r="54" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
     </row>
     <row r="55" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
@@ -2273,59 +2262,59 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="104"/>
+      <c r="G55" s="103"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="112"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="110"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="104"/>
+      <c r="G56" s="103"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="104" t="s">
+      <c r="C57" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="104"/>
+      <c r="G57" s="103"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
-      <c r="C58" s="104" t="s">
+      <c r="C58" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="104"/>
+      <c r="G58" s="103"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="104"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="104"/>
+      <c r="G59" s="103"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
-      <c r="C60" s="104" t="s">
+      <c r="C60" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="112">
+      <c r="D60" s="110">
         <v>12000000</v>
       </c>
-      <c r="E60" s="104"/>
+      <c r="E60" s="103"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="104"/>
+      <c r="G60" s="103"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
@@ -2335,22 +2324,22 @@
       <c r="D61" s="18">
         <v>-9000000</v>
       </c>
-      <c r="E61" s="104"/>
+      <c r="E61" s="103"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="104"/>
+      <c r="G61" s="103"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
-      <c r="C62" s="104" t="s">
+      <c r="C62" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="112">
+      <c r="D62" s="110">
         <f>D61+D60</f>
         <v>3000000</v>
       </c>
-      <c r="E62" s="104"/>
+      <c r="E62" s="103"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="104"/>
+      <c r="G62" s="103"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
@@ -2360,22 +2349,22 @@
       <c r="D63" s="18">
         <v>-1100000</v>
       </c>
-      <c r="E63" s="104"/>
+      <c r="E63" s="103"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="104"/>
+      <c r="G63" s="103"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="112">
+      <c r="D64" s="110">
         <f>D63+D62</f>
         <v>1900000</v>
       </c>
-      <c r="E64" s="104"/>
+      <c r="E64" s="103"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="104"/>
+      <c r="G64" s="103"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
@@ -2385,22 +2374,22 @@
       <c r="D65" s="18">
         <v>-100000</v>
       </c>
-      <c r="E65" s="104"/>
+      <c r="E65" s="103"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="104"/>
+      <c r="G65" s="103"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
-      <c r="C66" s="104" t="s">
+      <c r="C66" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="112">
+      <c r="D66" s="110">
         <f>D65+D64</f>
         <v>1800000</v>
       </c>
-      <c r="E66" s="104"/>
+      <c r="E66" s="103"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="104"/>
+      <c r="G66" s="103"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
@@ -2411,9 +2400,9 @@
         <f>-D66*0.21</f>
         <v>-378000</v>
       </c>
-      <c r="E67" s="104"/>
+      <c r="E67" s="103"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="104"/>
+      <c r="G67" s="103"/>
     </row>
     <row r="68" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="10"/>
@@ -2426,7 +2415,7 @@
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="104"/>
+      <c r="G68" s="103"/>
     </row>
     <row r="69" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
@@ -2434,11 +2423,9 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="104"/>
-    </row>
-    <row r="70" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G70" s="111"/>
-    </row>
+      <c r="G69" s="103"/>
+    </row>
+    <row r="70" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>134</v>
@@ -2447,7 +2434,6 @@
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
       <c r="F71" s="26"/>
-      <c r="G71" s="111"/>
       <c r="K71" s="27"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -2468,13 +2454,13 @@
       <c r="B73" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="113" t="s">
+      <c r="C73" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="114" t="s">
+      <c r="E73" s="112" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="33"/>
@@ -2484,13 +2470,13 @@
       <c r="B74" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="113" t="s">
+      <c r="C74" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="114" t="s">
+      <c r="D74" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="33"/>
@@ -2500,13 +2486,13 @@
       <c r="B75" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="113" t="s">
+      <c r="C75" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="114" t="s">
+      <c r="D75" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="114" t="s">
+      <c r="E75" s="112" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="33"/>
@@ -2516,13 +2502,13 @@
       <c r="B76" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="115" t="s">
+      <c r="C76" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="116" t="s">
+      <c r="D76" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="114" t="s">
+      <c r="E76" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="33"/>
@@ -2532,13 +2518,13 @@
       <c r="B77" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="115" t="s">
+      <c r="C77" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="D77" s="114" t="s">
+      <c r="D77" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="114" t="s">
+      <c r="E77" s="112" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="33"/>
@@ -2548,13 +2534,13 @@
       <c r="B78" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="113" t="s">
+      <c r="C78" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="116" t="s">
+      <c r="D78" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="114" t="s">
+      <c r="E78" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="33"/>
@@ -2564,13 +2550,13 @@
       <c r="B79" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="117" t="s">
+      <c r="C79" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="116" t="s">
+      <c r="D79" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="114" t="s">
+      <c r="E79" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="33"/>
@@ -2580,13 +2566,13 @@
       <c r="B80" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="113" t="s">
+      <c r="C80" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="114" t="s">
+      <c r="D80" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="114" t="s">
+      <c r="E80" s="112" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="33"/>
@@ -2596,13 +2582,13 @@
       <c r="B81" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="113" t="s">
+      <c r="C81" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="114" t="s">
+      <c r="D81" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="114" t="s">
+      <c r="E81" s="112" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="33"/>
@@ -2612,13 +2598,13 @@
       <c r="B82" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="113" t="s">
+      <c r="C82" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="114" t="s">
+      <c r="D82" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="114" t="s">
+      <c r="E82" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="33"/>
@@ -2628,13 +2614,13 @@
       <c r="B83" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="118" t="s">
+      <c r="C83" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="119" t="s">
+      <c r="D83" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="114" t="s">
+      <c r="E83" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="33"/>
@@ -2651,8 +2637,8 @@
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="39"/>
       <c r="C85" s="40"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
       <c r="K85" s="27"/>
     </row>
     <row r="86" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -2923,33 +2909,33 @@
       <c r="B117" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="102" t="s">
+      <c r="C117" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D117" s="102"/>
+      <c r="D117" s="118"/>
       <c r="E117" s="52"/>
       <c r="F117" s="57"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="43"/>
-      <c r="C118" s="102" t="s">
+      <c r="C118" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D118" s="102"/>
+      <c r="D118" s="118"/>
       <c r="E118" s="52"/>
       <c r="F118" s="57"/>
     </row>
     <row r="119" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="43"/>
-      <c r="C119" s="102"/>
-      <c r="D119" s="102"/>
+      <c r="C119" s="118"/>
+      <c r="D119" s="118"/>
       <c r="E119" s="52"/>
       <c r="F119" s="57"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="43"/>
-      <c r="C120" s="102"/>
-      <c r="D120" s="102"/>
+      <c r="C120" s="118"/>
+      <c r="D120" s="118"/>
       <c r="F120" s="33"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
@@ -3787,7 +3773,7 @@
     </row>
     <row r="218" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B218" s="35"/>
-      <c r="C218" s="103">
+      <c r="C218" s="102">
         <f>C216/C217</f>
         <v>0.21436261529956063</v>
       </c>
@@ -3801,9 +3787,7 @@
       <c r="B219" s="50"/>
       <c r="C219" s="86"/>
     </row>
-    <row r="220" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G220" s="111"/>
-    </row>
+    <row r="220" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="221" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
         <v>139</v>
@@ -3812,39 +3796,39 @@
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="3"/>
-      <c r="G221" s="104"/>
+      <c r="G221" s="103"/>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C222" s="104"/>
-      <c r="D222" s="104"/>
-      <c r="E222" s="104"/>
+      <c r="C222" s="103"/>
+      <c r="D222" s="103"/>
+      <c r="E222" s="103"/>
       <c r="F222" s="5"/>
-      <c r="G222" s="104"/>
+      <c r="G222" s="103"/>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="20">
         <v>0.05</v>
       </c>
-      <c r="C223" s="104" t="s">
+      <c r="C223" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="D223" s="104"/>
-      <c r="E223" s="104"/>
+      <c r="D223" s="103"/>
+      <c r="E223" s="103"/>
       <c r="F223" s="5"/>
-      <c r="G223" s="104"/>
+      <c r="G223" s="103"/>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
-      <c r="C224" s="104" t="s">
+      <c r="C224" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="D224" s="104"/>
-      <c r="E224" s="104"/>
+      <c r="D224" s="103"/>
+      <c r="E224" s="103"/>
       <c r="F224" s="5"/>
-      <c r="G224" s="104"/>
+      <c r="G224" s="103"/>
     </row>
     <row r="225" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="10"/>
@@ -3854,10 +3838,7 @@
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="8"/>
-      <c r="G225" s="104"/>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G226" s="111"/>
+      <c r="G225" s="103"/>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G235" s="89"/>
